--- a/temp/pages/StructureDefinition-reason-reference.xlsx
+++ b/temp/pages/StructureDefinition-reason-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:56:27+02:00</t>
+    <t>2023-07-17T16:21:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-reason-reference.xlsx
+++ b/temp/pages/StructureDefinition-reason-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T16:21:50+02:00</t>
+    <t>2023-07-17T17:08:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-reason-reference.xlsx
+++ b/temp/pages/StructureDefinition-reason-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:08:31+02:00</t>
+    <t>2023-07-17T17:22:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-reason-reference.xlsx
+++ b/temp/pages/StructureDefinition-reason-reference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:22:35+02:00</t>
+    <t>2023-07-18T09:29:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
